--- a/data/pca/factorExposure/factorExposure_2010-06-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-11.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01330763516960297</v>
+        <v>-0.01685695938020446</v>
       </c>
       <c r="C2">
-        <v>0.003960596159968246</v>
+        <v>-0.0008663219037041178</v>
       </c>
       <c r="D2">
-        <v>-0.01169676171088717</v>
+        <v>0.008624171529262691</v>
       </c>
       <c r="E2">
-        <v>-0.02268291604244869</v>
+        <v>-0.002366969766955902</v>
       </c>
       <c r="F2">
-        <v>-0.02920936477567556</v>
+        <v>-0.01326628545311386</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1230052422484707</v>
+        <v>-0.09575528007996086</v>
       </c>
       <c r="C4">
-        <v>0.1050102759205131</v>
+        <v>-0.01759686427735846</v>
       </c>
       <c r="D4">
-        <v>0.006755424831794806</v>
+        <v>0.0813749388676272</v>
       </c>
       <c r="E4">
-        <v>0.1245720819356234</v>
+        <v>0.02646582563712388</v>
       </c>
       <c r="F4">
-        <v>-0.1168223161670696</v>
+        <v>0.03981786652324015</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1292862997687159</v>
+        <v>-0.1522414190558276</v>
       </c>
       <c r="C6">
-        <v>0.05307639433045633</v>
+        <v>-0.02440116988331723</v>
       </c>
       <c r="D6">
-        <v>0.006784141825066379</v>
+        <v>-0.02264506139605577</v>
       </c>
       <c r="E6">
-        <v>0.02749574939950755</v>
+        <v>0.0153700961455507</v>
       </c>
       <c r="F6">
-        <v>-0.02557751306623441</v>
+        <v>0.0392352247378473</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07062165163122475</v>
+        <v>-0.06191986178592973</v>
       </c>
       <c r="C7">
-        <v>0.08007436122206275</v>
+        <v>-0.0001163890230757295</v>
       </c>
       <c r="D7">
-        <v>-0.01205479003720012</v>
+        <v>0.05151729972824645</v>
       </c>
       <c r="E7">
-        <v>0.009318387151715108</v>
+        <v>0.01318078369505421</v>
       </c>
       <c r="F7">
-        <v>-0.004414896009689288</v>
+        <v>0.05830091935299942</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04660103012464918</v>
+        <v>-0.05972415734950303</v>
       </c>
       <c r="C8">
-        <v>0.01803098478764503</v>
+        <v>0.01265698203822939</v>
       </c>
       <c r="D8">
-        <v>-0.0005687796198856904</v>
+        <v>0.02804170808772187</v>
       </c>
       <c r="E8">
-        <v>0.08407327415711362</v>
+        <v>0.01217482445122731</v>
       </c>
       <c r="F8">
-        <v>-0.06686629801718552</v>
+        <v>-0.02191019305786229</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08845902774847623</v>
+        <v>-0.07285524200147248</v>
       </c>
       <c r="C9">
-        <v>0.08234369831395098</v>
+        <v>-0.0138128607232008</v>
       </c>
       <c r="D9">
-        <v>0.02368048476467501</v>
+        <v>0.08078331295267839</v>
       </c>
       <c r="E9">
-        <v>0.1085962085926964</v>
+        <v>0.02099844430341064</v>
       </c>
       <c r="F9">
-        <v>-0.09560388666945467</v>
+        <v>0.06160133858251687</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1331871862125287</v>
+        <v>-0.09210213275826909</v>
       </c>
       <c r="C10">
-        <v>-0.1723817268454049</v>
+        <v>-0.01457882916573936</v>
       </c>
       <c r="D10">
-        <v>-0.008780968178854973</v>
+        <v>-0.1730864492222925</v>
       </c>
       <c r="E10">
-        <v>-0.04077276280736371</v>
+        <v>-0.03493898435340872</v>
       </c>
       <c r="F10">
-        <v>0.01430015743597774</v>
+        <v>-0.05089847867906753</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06697842601119557</v>
+        <v>-0.08844936316062535</v>
       </c>
       <c r="C11">
-        <v>0.0669032185898607</v>
+        <v>-0.01300561711981706</v>
       </c>
       <c r="D11">
-        <v>0.04335593697528384</v>
+        <v>0.110514467435485</v>
       </c>
       <c r="E11">
-        <v>0.0841868395173123</v>
+        <v>0.04132122089762924</v>
       </c>
       <c r="F11">
-        <v>-0.0678199539656331</v>
+        <v>0.02774758348938468</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06707699899081919</v>
+        <v>-0.09333295976971719</v>
       </c>
       <c r="C12">
-        <v>0.07123700359252799</v>
+        <v>-0.01092097191395426</v>
       </c>
       <c r="D12">
-        <v>0.0529003138249099</v>
+        <v>0.1175825767500546</v>
       </c>
       <c r="E12">
-        <v>0.1060087120203581</v>
+        <v>0.03919480517281806</v>
       </c>
       <c r="F12">
-        <v>-0.03783228134378859</v>
+        <v>0.02993468961363634</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03849981158961221</v>
+        <v>-0.04398509612439683</v>
       </c>
       <c r="C13">
-        <v>0.04142533006043109</v>
+        <v>-0.004697062553689768</v>
       </c>
       <c r="D13">
-        <v>-0.02037169680788194</v>
+        <v>0.0432950875899304</v>
       </c>
       <c r="E13">
-        <v>0.03223773423397527</v>
+        <v>-0.01536375289626705</v>
       </c>
       <c r="F13">
-        <v>-0.0125505729325387</v>
+        <v>0.02033908757171541</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0344823462349556</v>
+        <v>-0.02207989027356726</v>
       </c>
       <c r="C14">
-        <v>0.03714847480495809</v>
+        <v>-0.01482711980544033</v>
       </c>
       <c r="D14">
-        <v>0.01802674436077107</v>
+        <v>0.03162837189855962</v>
       </c>
       <c r="E14">
-        <v>0.04805781082725968</v>
+        <v>0.01583156671199584</v>
       </c>
       <c r="F14">
-        <v>-0.02805073681789673</v>
+        <v>0.02669176666453071</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01956602097145493</v>
+        <v>-0.03266238565240043</v>
       </c>
       <c r="C15">
-        <v>0.0166467356254749</v>
+        <v>-0.00586700577894021</v>
       </c>
       <c r="D15">
-        <v>-0.06855731278795259</v>
+        <v>0.04292568648040583</v>
       </c>
       <c r="E15">
-        <v>-0.002341704467257858</v>
+        <v>0.007359805455517976</v>
       </c>
       <c r="F15">
-        <v>-0.02976072473679841</v>
+        <v>0.03421125666682694</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07618970138840638</v>
+        <v>-0.07549069079184055</v>
       </c>
       <c r="C16">
-        <v>0.08057033766861929</v>
+        <v>-0.004821351034045109</v>
       </c>
       <c r="D16">
-        <v>0.03984783109908647</v>
+        <v>0.1148968913080171</v>
       </c>
       <c r="E16">
-        <v>0.09071614344038811</v>
+        <v>0.05663643639710145</v>
       </c>
       <c r="F16">
-        <v>-0.0425582078651663</v>
+        <v>0.03622987481575267</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02010735811133809</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003992287990465011</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02248780788497141</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.0113132247520105</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02829254778567275</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04679783719964446</v>
+        <v>-0.06169463547594241</v>
       </c>
       <c r="C20">
-        <v>0.02393230901242833</v>
+        <v>-0.002461183125145372</v>
       </c>
       <c r="D20">
-        <v>-0.03321736728355107</v>
+        <v>0.07010062541419479</v>
       </c>
       <c r="E20">
-        <v>0.07394616447667378</v>
+        <v>0.050898001542655</v>
       </c>
       <c r="F20">
-        <v>-0.02599524670530438</v>
+        <v>0.03153529024692919</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.025648556187417</v>
+        <v>-0.03828077435606375</v>
       </c>
       <c r="C21">
-        <v>0.02563238639004384</v>
+        <v>-0.007799069525738713</v>
       </c>
       <c r="D21">
-        <v>0.01827649134003463</v>
+        <v>0.0332981246700699</v>
       </c>
       <c r="E21">
-        <v>0.0459694357359437</v>
+        <v>-0.01365510992327249</v>
       </c>
       <c r="F21">
-        <v>-0.03893626996984909</v>
+        <v>-0.01831522790476136</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0552034635608527</v>
+        <v>-0.04226905031019571</v>
       </c>
       <c r="C22">
-        <v>0.02253644860956757</v>
+        <v>-0.0007044539432777536</v>
       </c>
       <c r="D22">
-        <v>-0.6451685784847822</v>
+        <v>0.002004801481507135</v>
       </c>
       <c r="E22">
-        <v>0.08882513055159907</v>
+        <v>0.03304024418185307</v>
       </c>
       <c r="F22">
-        <v>0.1237442669883369</v>
+        <v>-0.02321743438248735</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05611484729412349</v>
+        <v>-0.04236224168987816</v>
       </c>
       <c r="C23">
-        <v>0.0243605568696778</v>
+        <v>-0.0007382875689760208</v>
       </c>
       <c r="D23">
-        <v>-0.6474374281588088</v>
+        <v>0.002215271150076754</v>
       </c>
       <c r="E23">
-        <v>0.09287980569212156</v>
+        <v>0.03346032790264274</v>
       </c>
       <c r="F23">
-        <v>0.1204330809251178</v>
+        <v>-0.02266850865676646</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07577155319234814</v>
+        <v>-0.0818116454283439</v>
       </c>
       <c r="C24">
-        <v>0.08010934913286992</v>
+        <v>-0.005002357933232694</v>
       </c>
       <c r="D24">
-        <v>0.03144015592765956</v>
+        <v>0.1144655681998106</v>
       </c>
       <c r="E24">
-        <v>0.08659191842833493</v>
+        <v>0.04469889189284405</v>
       </c>
       <c r="F24">
-        <v>-0.05637549677478521</v>
+        <v>0.02849207752107158</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07436243167062388</v>
+        <v>-0.08593437065663977</v>
       </c>
       <c r="C25">
-        <v>0.06217498969000609</v>
+        <v>-0.006928570300893476</v>
       </c>
       <c r="D25">
-        <v>0.05839935033099349</v>
+        <v>0.1014176568149979</v>
       </c>
       <c r="E25">
-        <v>0.08885460333473115</v>
+        <v>0.02715064644480236</v>
       </c>
       <c r="F25">
-        <v>-0.05607697003732687</v>
+        <v>0.03770863835211354</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04252064935221066</v>
+        <v>-0.05664858154657521</v>
       </c>
       <c r="C26">
-        <v>0.006682591479974086</v>
+        <v>-0.01564576320404878</v>
       </c>
       <c r="D26">
-        <v>-0.01545707086009595</v>
+        <v>0.03257594946126203</v>
       </c>
       <c r="E26">
-        <v>0.09283844599105659</v>
+        <v>0.02331489640021463</v>
       </c>
       <c r="F26">
-        <v>0.01423282096024191</v>
+        <v>-0.001782652191449338</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1631011818773949</v>
+        <v>-0.1382132023454755</v>
       </c>
       <c r="C28">
-        <v>-0.2675638030367118</v>
+        <v>-0.01191064064854764</v>
       </c>
       <c r="D28">
-        <v>0.01196387335059347</v>
+        <v>-0.2722491990388418</v>
       </c>
       <c r="E28">
-        <v>0.03567333443063964</v>
+        <v>-0.06580193598572681</v>
       </c>
       <c r="F28">
-        <v>-0.005561379430622977</v>
+        <v>0.04244030729640141</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03351081577015068</v>
+        <v>-0.02753583536100916</v>
       </c>
       <c r="C29">
-        <v>0.03250495541318311</v>
+        <v>-0.009159506719838706</v>
       </c>
       <c r="D29">
-        <v>0.01532323683643159</v>
+        <v>0.02986186993631108</v>
       </c>
       <c r="E29">
-        <v>0.04418892581101781</v>
+        <v>0.008416578429365934</v>
       </c>
       <c r="F29">
-        <v>-0.03585870011059573</v>
+        <v>-0.005468011414756751</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09131125556643629</v>
+        <v>-0.06481316787253322</v>
       </c>
       <c r="C30">
-        <v>0.06437313611844299</v>
+        <v>-0.006726742924123575</v>
       </c>
       <c r="D30">
-        <v>0.02430043459571419</v>
+        <v>0.07835812550965782</v>
       </c>
       <c r="E30">
-        <v>0.2871008719725999</v>
+        <v>0.02179291933319193</v>
       </c>
       <c r="F30">
-        <v>0.04854562637862194</v>
+        <v>0.122522458801555</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02815221053849746</v>
+        <v>-0.04905187574415842</v>
       </c>
       <c r="C31">
-        <v>0.05806066885458082</v>
+        <v>-0.01518427799420913</v>
       </c>
       <c r="D31">
-        <v>-0.003025919530531945</v>
+        <v>0.02909157524679845</v>
       </c>
       <c r="E31">
-        <v>0.03019710308581138</v>
+        <v>0.0264120730020019</v>
       </c>
       <c r="F31">
-        <v>-0.03729048616294614</v>
+        <v>-0.002234163638935532</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05458790341718194</v>
+        <v>-0.04914160018969985</v>
       </c>
       <c r="C32">
-        <v>0.01399542943337202</v>
+        <v>-0.0005778902423700898</v>
       </c>
       <c r="D32">
-        <v>0.05493632711177315</v>
+        <v>0.02988288316644788</v>
       </c>
       <c r="E32">
-        <v>0.00819546119534151</v>
+        <v>0.0261253139882665</v>
       </c>
       <c r="F32">
-        <v>-0.07884422892060988</v>
+        <v>0.003470203437921691</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09791022112199819</v>
+        <v>-0.09206133460350148</v>
       </c>
       <c r="C33">
-        <v>0.08156136665669958</v>
+        <v>-0.01012927275246332</v>
       </c>
       <c r="D33">
-        <v>0.02815551334952346</v>
+        <v>0.09079975005790945</v>
       </c>
       <c r="E33">
-        <v>0.07204801978952798</v>
+        <v>0.04362212399835703</v>
       </c>
       <c r="F33">
-        <v>0.008407500797584986</v>
+        <v>0.04411158869325391</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06706033713556056</v>
+        <v>-0.06937018834753311</v>
       </c>
       <c r="C34">
-        <v>0.06126699708397707</v>
+        <v>-0.01291500336159395</v>
       </c>
       <c r="D34">
-        <v>0.04047519540130649</v>
+        <v>0.0950161436643263</v>
       </c>
       <c r="E34">
-        <v>0.0875247015775191</v>
+        <v>0.02815538287738883</v>
       </c>
       <c r="F34">
-        <v>-0.06084752003984512</v>
+        <v>0.05369091826879174</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01821694713276594</v>
+        <v>-0.02461352725414309</v>
       </c>
       <c r="C35">
-        <v>0.009422682458169756</v>
+        <v>-0.002719384746603501</v>
       </c>
       <c r="D35">
-        <v>-0.0004917878695714914</v>
+        <v>0.009539926508333249</v>
       </c>
       <c r="E35">
-        <v>0.03392373732866978</v>
+        <v>0.01099254992552007</v>
       </c>
       <c r="F35">
-        <v>-0.02062458491869623</v>
+        <v>0.01229138585169912</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02341045343730166</v>
+        <v>-0.0248197212380996</v>
       </c>
       <c r="C36">
-        <v>0.01741934299651407</v>
+        <v>-0.007197631496917198</v>
       </c>
       <c r="D36">
-        <v>-0.01232419526892787</v>
+        <v>0.0382977994736059</v>
       </c>
       <c r="E36">
-        <v>0.07418904313430327</v>
+        <v>0.01442359818641784</v>
       </c>
       <c r="F36">
-        <v>-0.02960503385182159</v>
+        <v>0.0100740579988528</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01969763665431225</v>
+        <v>-0.002774700582427324</v>
       </c>
       <c r="C38">
-        <v>0.04862404805068345</v>
+        <v>-0.0004923662951881298</v>
       </c>
       <c r="D38">
-        <v>-0.02485764019309092</v>
+        <v>0.002888207012728016</v>
       </c>
       <c r="E38">
-        <v>-0.0599463546645079</v>
+        <v>0.003632005610326315</v>
       </c>
       <c r="F38">
-        <v>0.1233280544095528</v>
+        <v>-0.002873155756970839</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1044401240852155</v>
+        <v>-0.1112803691933835</v>
       </c>
       <c r="C39">
-        <v>0.09675606413550505</v>
+        <v>-0.01875248618836028</v>
       </c>
       <c r="D39">
-        <v>0.1346824295312671</v>
+        <v>0.1463399441722031</v>
       </c>
       <c r="E39">
-        <v>0.205777307695814</v>
+        <v>0.05071884068816864</v>
       </c>
       <c r="F39">
-        <v>0.03473778321207713</v>
+        <v>0.04203693560403148</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02734321118243412</v>
+        <v>-0.03757672955838071</v>
       </c>
       <c r="C40">
-        <v>0.07110260509385248</v>
+        <v>-0.007657370255954053</v>
       </c>
       <c r="D40">
-        <v>-0.02719344258822419</v>
+        <v>0.02946954732835464</v>
       </c>
       <c r="E40">
-        <v>-0.00398687530392678</v>
+        <v>0.001385161020157826</v>
       </c>
       <c r="F40">
-        <v>-0.08080008962847414</v>
+        <v>-0.01827952801404547</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03534010796223554</v>
+        <v>-0.02680203872635554</v>
       </c>
       <c r="C41">
-        <v>0.02537557743133234</v>
+        <v>-0.006824965549367699</v>
       </c>
       <c r="D41">
-        <v>0.01787715830162588</v>
+        <v>0.01070149456869352</v>
       </c>
       <c r="E41">
-        <v>0.01522463283893521</v>
+        <v>0.01118246164679424</v>
       </c>
       <c r="F41">
-        <v>0.01213578723440459</v>
+        <v>-0.01192732742149419</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04420044913318048</v>
+        <v>-0.0428462496688841</v>
       </c>
       <c r="C43">
-        <v>0.04603365609703664</v>
+        <v>-0.007204149630139962</v>
       </c>
       <c r="D43">
-        <v>-0.009452063321031438</v>
+        <v>0.02074306257631071</v>
       </c>
       <c r="E43">
-        <v>0.03382191135643266</v>
+        <v>0.02526227882187957</v>
       </c>
       <c r="F43">
-        <v>0.02634795067440445</v>
+        <v>-0.01099919180361875</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09780996005272127</v>
+        <v>-0.07334969266764564</v>
       </c>
       <c r="C44">
-        <v>0.09607906841723744</v>
+        <v>-0.02298557954255417</v>
       </c>
       <c r="D44">
-        <v>-0.08263271028885152</v>
+        <v>0.09740174540139608</v>
       </c>
       <c r="E44">
-        <v>0.09634735907895343</v>
+        <v>0.06505899374245724</v>
       </c>
       <c r="F44">
-        <v>-0.06779994499849158</v>
+        <v>0.1831486235800095</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.03843616712667285</v>
+        <v>-0.02375996731993458</v>
       </c>
       <c r="C46">
-        <v>0.0419659676973442</v>
+        <v>-0.004359959230271515</v>
       </c>
       <c r="D46">
-        <v>-0.04021235078454494</v>
+        <v>0.01143742152952406</v>
       </c>
       <c r="E46">
-        <v>0.02982255719696783</v>
+        <v>0.02120399899314123</v>
       </c>
       <c r="F46">
-        <v>-0.03502281928459929</v>
+        <v>-0.0008061948638280437</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04884662210439427</v>
+        <v>-0.05326489248984802</v>
       </c>
       <c r="C47">
-        <v>0.04752330345338727</v>
+        <v>-0.003516785340381932</v>
       </c>
       <c r="D47">
-        <v>-0.002143351850026954</v>
+        <v>0.01318561024765018</v>
       </c>
       <c r="E47">
-        <v>0.009632377277296844</v>
+        <v>0.02318906792481013</v>
       </c>
       <c r="F47">
-        <v>-0.004333025620365385</v>
+        <v>-0.04732459790910093</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0439353837703465</v>
+        <v>-0.04854185365810212</v>
       </c>
       <c r="C48">
-        <v>0.01808743008710577</v>
+        <v>-0.003332517048023992</v>
       </c>
       <c r="D48">
-        <v>0.01159084808484124</v>
+        <v>0.04496213063803021</v>
       </c>
       <c r="E48">
-        <v>0.06043620286354178</v>
+        <v>-0.008493120943266503</v>
       </c>
       <c r="F48">
-        <v>-0.07408044696779399</v>
+        <v>0.01784688555941362</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2277309691765719</v>
+        <v>-0.2047246201090085</v>
       </c>
       <c r="C49">
-        <v>0.04360935013130343</v>
+        <v>-0.01675636563334233</v>
       </c>
       <c r="D49">
-        <v>0.02745325829121116</v>
+        <v>-0.009672098688805933</v>
       </c>
       <c r="E49">
-        <v>-0.2595845552521261</v>
+        <v>0.04115814326449751</v>
       </c>
       <c r="F49">
-        <v>0.1763890147832209</v>
+        <v>0.0339244930314847</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04086499192246343</v>
+        <v>-0.04877373980553458</v>
       </c>
       <c r="C50">
-        <v>0.04446108193473772</v>
+        <v>-0.01123108487757729</v>
       </c>
       <c r="D50">
-        <v>0.01476318264649716</v>
+        <v>0.02647404239266921</v>
       </c>
       <c r="E50">
-        <v>0.07099677594079749</v>
+        <v>0.02855116163911816</v>
       </c>
       <c r="F50">
-        <v>-0.006035845324847043</v>
+        <v>0.006816521660026757</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0253019050895094</v>
+        <v>-0.003238449196995518</v>
       </c>
       <c r="C51">
-        <v>-0.0002345407209320807</v>
+        <v>-0.0007758443020930228</v>
       </c>
       <c r="D51">
-        <v>-0.001498375850359428</v>
+        <v>-0.001750084571932763</v>
       </c>
       <c r="E51">
-        <v>-0.05724194496080613</v>
+        <v>0.001168794302649469</v>
       </c>
       <c r="F51">
-        <v>0.006456466601933288</v>
+        <v>0.00445708658637356</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.04816483057034295</v>
+        <v>-0.1424237047552289</v>
       </c>
       <c r="C52">
-        <v>0.0205720811321295</v>
+        <v>-0.01274881523862227</v>
       </c>
       <c r="D52">
-        <v>0.03037648085982571</v>
+        <v>0.0490129588595133</v>
       </c>
       <c r="E52">
-        <v>0.03669034020773844</v>
+        <v>0.0176184683624094</v>
       </c>
       <c r="F52">
-        <v>0.02420825034131954</v>
+        <v>0.03267991962329914</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1510661666500097</v>
+        <v>-0.1729881570019711</v>
       </c>
       <c r="C53">
-        <v>0.06297446946780751</v>
+        <v>-0.01561397084117869</v>
       </c>
       <c r="D53">
-        <v>-0.01254967541977125</v>
+        <v>0.01648086777137818</v>
       </c>
       <c r="E53">
-        <v>-0.03338748691215015</v>
+        <v>0.03805388267073462</v>
       </c>
       <c r="F53">
-        <v>0.0989391723023004</v>
+        <v>0.06058788961466662</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05539010501653685</v>
+        <v>-0.02325820785972929</v>
       </c>
       <c r="C54">
-        <v>0.0477072192424946</v>
+        <v>-0.01288548188807304</v>
       </c>
       <c r="D54">
-        <v>-0.000282560995127644</v>
+        <v>0.03162657746826308</v>
       </c>
       <c r="E54">
-        <v>0.09413241820643238</v>
+        <v>0.01269809641758457</v>
       </c>
       <c r="F54">
-        <v>-0.09802909892074838</v>
+        <v>-0.001532643916975921</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08068601837882271</v>
+        <v>-0.114375752739204</v>
       </c>
       <c r="C55">
-        <v>0.05271016819180904</v>
+        <v>-0.01446523503661729</v>
       </c>
       <c r="D55">
-        <v>0.03642128358926045</v>
+        <v>0.01440724806937803</v>
       </c>
       <c r="E55">
-        <v>-0.01366622983317661</v>
+        <v>0.03062150531589122</v>
       </c>
       <c r="F55">
-        <v>0.02017714023185457</v>
+        <v>0.04684148571657642</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1426626969744562</v>
+        <v>-0.1775661697104393</v>
       </c>
       <c r="C56">
-        <v>0.1002824382415673</v>
+        <v>-0.01313000123441108</v>
       </c>
       <c r="D56">
-        <v>0.02082367674540662</v>
+        <v>0.01003739043847297</v>
       </c>
       <c r="E56">
-        <v>-0.02358990766477121</v>
+        <v>0.04334808135611182</v>
       </c>
       <c r="F56">
-        <v>0.05713132411562515</v>
+        <v>0.03084755558891518</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04377842880138957</v>
+        <v>-0.04715665365202797</v>
       </c>
       <c r="C58">
-        <v>0.03287135404849476</v>
+        <v>-0.002938159204466953</v>
       </c>
       <c r="D58">
-        <v>-0.03509354667954473</v>
+        <v>0.0638976084958839</v>
       </c>
       <c r="E58">
-        <v>0.04744161118453653</v>
+        <v>0.01619588308024072</v>
       </c>
       <c r="F58">
-        <v>-0.01043877160421324</v>
+        <v>-0.04471657263759197</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2209235868836841</v>
+        <v>-0.1695218630261595</v>
       </c>
       <c r="C59">
-        <v>-0.2359132543694964</v>
+        <v>-0.01372184318225286</v>
       </c>
       <c r="D59">
-        <v>0.04668203307557947</v>
+        <v>-0.2329156614179126</v>
       </c>
       <c r="E59">
-        <v>-0.03336746306201144</v>
+        <v>-0.04736065240234329</v>
       </c>
       <c r="F59">
-        <v>-0.05532883909653714</v>
+        <v>-0.03019409525605481</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2277249269491379</v>
+        <v>-0.2394380472858149</v>
       </c>
       <c r="C60">
-        <v>0.1459797512956086</v>
+        <v>0.004437762530059989</v>
       </c>
       <c r="D60">
-        <v>0.07362585634664642</v>
+        <v>0.04991975847591092</v>
       </c>
       <c r="E60">
-        <v>-0.1198501833418115</v>
+        <v>0.01121882061508238</v>
       </c>
       <c r="F60">
-        <v>0.06993060436967601</v>
+        <v>-0.04319865221011714</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1077773690191379</v>
+        <v>-0.08605650920848928</v>
       </c>
       <c r="C61">
-        <v>0.08256575768982354</v>
+        <v>-0.01460076085159903</v>
       </c>
       <c r="D61">
-        <v>0.07710580256601553</v>
+        <v>0.1082099161945997</v>
       </c>
       <c r="E61">
-        <v>0.1659363053888806</v>
+        <v>0.03370869692512319</v>
       </c>
       <c r="F61">
-        <v>-0.0308891658027788</v>
+        <v>0.02465484919792033</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.131866654008142</v>
+        <v>-0.1692954813443732</v>
       </c>
       <c r="C62">
-        <v>0.07202528723049011</v>
+        <v>-0.01699150925142437</v>
       </c>
       <c r="D62">
-        <v>-0.00192958995586968</v>
+        <v>0.01321335747188814</v>
       </c>
       <c r="E62">
-        <v>-0.04960339261135478</v>
+        <v>0.03951408949594615</v>
       </c>
       <c r="F62">
-        <v>0.07792603459579488</v>
+        <v>0.01192063445256058</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.05082923563077926</v>
+        <v>-0.04271551296483352</v>
       </c>
       <c r="C63">
-        <v>0.02635883557344459</v>
+        <v>-0.004058925734432242</v>
       </c>
       <c r="D63">
-        <v>0.01006715322115885</v>
+        <v>0.04722976041986177</v>
       </c>
       <c r="E63">
-        <v>0.08460960864254626</v>
+        <v>0.0154993931477355</v>
       </c>
       <c r="F63">
-        <v>-0.01949739432443366</v>
+        <v>0.01143083956150989</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09401977888965198</v>
+        <v>-0.1120528873385903</v>
       </c>
       <c r="C64">
-        <v>0.06028094102628744</v>
+        <v>-0.01178832718387349</v>
       </c>
       <c r="D64">
-        <v>0.0002368130694335833</v>
+        <v>0.04036349058625648</v>
       </c>
       <c r="E64">
-        <v>0.07599066176826774</v>
+        <v>0.01986857830955551</v>
       </c>
       <c r="F64">
-        <v>0.009083035886046708</v>
+        <v>0.01691851660102139</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1157141705791965</v>
+        <v>-0.1438077507171734</v>
       </c>
       <c r="C65">
-        <v>0.03656133101083069</v>
+        <v>-0.03088578056236004</v>
       </c>
       <c r="D65">
-        <v>0.02155417833898269</v>
+        <v>-0.04608042438363547</v>
       </c>
       <c r="E65">
-        <v>0.05814011650288053</v>
+        <v>0.003450469163146081</v>
       </c>
       <c r="F65">
-        <v>0.01568967249180531</v>
+        <v>0.04306529532745431</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1199863952999035</v>
+        <v>-0.1333332162474063</v>
       </c>
       <c r="C66">
-        <v>0.1293548862538534</v>
+        <v>-0.01632361178798057</v>
       </c>
       <c r="D66">
-        <v>0.1216586178181616</v>
+        <v>0.1339526141260231</v>
       </c>
       <c r="E66">
-        <v>0.1824136875250587</v>
+        <v>0.05951438657449059</v>
       </c>
       <c r="F66">
-        <v>0.0604502521081447</v>
+        <v>0.04584353876908717</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.07069371601555434</v>
+        <v>-0.06500837208364453</v>
       </c>
       <c r="C67">
-        <v>0.05669544782859249</v>
+        <v>-0.003972681214180015</v>
       </c>
       <c r="D67">
-        <v>-0.03599158709118008</v>
+        <v>0.05513539710873158</v>
       </c>
       <c r="E67">
-        <v>-0.07080380908907961</v>
+        <v>0.0208862677395192</v>
       </c>
       <c r="F67">
-        <v>0.1309174491393402</v>
+        <v>-0.04345815606888751</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.136736533980069</v>
+        <v>-0.111425244018349</v>
       </c>
       <c r="C68">
-        <v>-0.257304159865625</v>
+        <v>-0.02290942324794309</v>
       </c>
       <c r="D68">
-        <v>0.02445745335701375</v>
+        <v>-0.2696116647585992</v>
       </c>
       <c r="E68">
-        <v>0.05486993317585619</v>
+        <v>-0.0848970776098313</v>
       </c>
       <c r="F68">
-        <v>-0.003562067127827714</v>
+        <v>0.04770045115678277</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04830526717999779</v>
+        <v>-0.04055884698402257</v>
       </c>
       <c r="C69">
-        <v>0.01606937768204959</v>
+        <v>-0.001251916628701396</v>
       </c>
       <c r="D69">
-        <v>-0.005007437111489503</v>
+        <v>0.009354367093028613</v>
       </c>
       <c r="E69">
-        <v>0.02401263653905741</v>
+        <v>0.02612787461147855</v>
       </c>
       <c r="F69">
-        <v>0.0175140293803316</v>
+        <v>-0.01720769290861621</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.05503757613383305</v>
+        <v>-0.06495053163143936</v>
       </c>
       <c r="C70">
-        <v>0.06237516921961014</v>
+        <v>0.02706195187059671</v>
       </c>
       <c r="D70">
-        <v>0.02340817767460884</v>
+        <v>0.02590635898126399</v>
       </c>
       <c r="E70">
-        <v>0.02555970293624513</v>
+        <v>-0.04532948029068735</v>
       </c>
       <c r="F70">
-        <v>-0.02756414619319223</v>
+        <v>-0.343905464315133</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1549725956200003</v>
+        <v>-0.1304504668393411</v>
       </c>
       <c r="C71">
-        <v>-0.2723649638361941</v>
+        <v>-0.02691552907339021</v>
       </c>
       <c r="D71">
-        <v>0.01973523029850634</v>
+        <v>-0.2859412535544523</v>
       </c>
       <c r="E71">
-        <v>0.07544872099092702</v>
+        <v>-0.09229067231936175</v>
       </c>
       <c r="F71">
-        <v>0.01247006454683641</v>
+        <v>0.05006163515311713</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1333535496041825</v>
+        <v>-0.1379710045650051</v>
       </c>
       <c r="C72">
-        <v>0.01768580605442336</v>
+        <v>-0.0238742056393138</v>
       </c>
       <c r="D72">
-        <v>0.004745151060609146</v>
+        <v>0.005368766777444518</v>
       </c>
       <c r="E72">
-        <v>0.04388224631874992</v>
+        <v>0.04207865928812649</v>
       </c>
       <c r="F72">
-        <v>0.0323108625782318</v>
+        <v>0.02454510856481912</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2166803413264484</v>
+        <v>-0.2074041342636627</v>
       </c>
       <c r="C73">
-        <v>0.1061513889616002</v>
+        <v>-0.01110825024432269</v>
       </c>
       <c r="D73">
-        <v>0.1191710071325091</v>
+        <v>0.01886735267194676</v>
       </c>
       <c r="E73">
-        <v>-0.405035883632557</v>
+        <v>0.06875921462691202</v>
       </c>
       <c r="F73">
-        <v>0.3308289411898578</v>
+        <v>0.02467185698943859</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09661790309833609</v>
+        <v>-0.0938641277382357</v>
       </c>
       <c r="C74">
-        <v>0.0888204336466082</v>
+        <v>-0.01179723427616893</v>
       </c>
       <c r="D74">
-        <v>0.00703140969609525</v>
+        <v>0.0253798950245968</v>
       </c>
       <c r="E74">
-        <v>0.002752910921437343</v>
+        <v>0.05058409968091194</v>
       </c>
       <c r="F74">
-        <v>0.1081179542316406</v>
+        <v>0.04060240732830252</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.09447562088405569</v>
+        <v>-0.1302095548387591</v>
       </c>
       <c r="C75">
-        <v>0.06576199964286734</v>
+        <v>-0.02619483539381853</v>
       </c>
       <c r="D75">
-        <v>0.00280593005587307</v>
+        <v>0.03459711321765289</v>
       </c>
       <c r="E75">
-        <v>-0.01358931427028336</v>
+        <v>0.06080774786646018</v>
       </c>
       <c r="F75">
-        <v>-0.00802198289207488</v>
+        <v>0.009523922757607592</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0562205097961835</v>
+        <v>-0.007530379215402457</v>
       </c>
       <c r="C76">
-        <v>0.06801396265436248</v>
+        <v>-0.001671156205177696</v>
       </c>
       <c r="D76">
-        <v>-0.005758245524520608</v>
+        <v>0.003042494970715108</v>
       </c>
       <c r="E76">
-        <v>-0.05478029443799045</v>
+        <v>0.007622129840534423</v>
       </c>
       <c r="F76">
-        <v>0.0259778897829808</v>
+        <v>0.004136175203064808</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0653426693097698</v>
+        <v>-0.08057891784503013</v>
       </c>
       <c r="C77">
-        <v>0.02696486815655526</v>
+        <v>-0.01063991229458594</v>
       </c>
       <c r="D77">
-        <v>0.03617811805151796</v>
+        <v>0.108626329173287</v>
       </c>
       <c r="E77">
-        <v>0.1023931691101922</v>
+        <v>0.03326763094821726</v>
       </c>
       <c r="F77">
-        <v>-0.1133112411565441</v>
+        <v>0.03430647794627999</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1593781561476908</v>
+        <v>-0.110263193847213</v>
       </c>
       <c r="C78">
-        <v>0.1374402554626764</v>
+        <v>-0.04321209792361599</v>
       </c>
       <c r="D78">
-        <v>-0.1732662766160225</v>
+        <v>0.1180682262540668</v>
       </c>
       <c r="E78">
-        <v>-0.2723947894522194</v>
+        <v>0.08982652536365084</v>
       </c>
       <c r="F78">
-        <v>-0.7018154161646956</v>
+        <v>0.0757869499546856</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1304497157959322</v>
+        <v>-0.1631742919858281</v>
       </c>
       <c r="C79">
-        <v>0.0871197098860637</v>
+        <v>-0.02012097187791146</v>
       </c>
       <c r="D79">
-        <v>-0.007574379603837445</v>
+        <v>0.02011061212101777</v>
       </c>
       <c r="E79">
-        <v>0.003565941986102889</v>
+        <v>0.0486775446388341</v>
       </c>
       <c r="F79">
-        <v>0.05035441061283032</v>
+        <v>0.005898560011330407</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.06866287371812292</v>
+        <v>-0.08082727107043565</v>
       </c>
       <c r="C80">
-        <v>0.04921314978493095</v>
+        <v>0.0007432613373368563</v>
       </c>
       <c r="D80">
-        <v>0.08189069797354252</v>
+        <v>0.05509997102784768</v>
       </c>
       <c r="E80">
-        <v>0.04168468437592379</v>
+        <v>0.02980663499567537</v>
       </c>
       <c r="F80">
-        <v>-0.01230578147486025</v>
+        <v>-0.01040034268391647</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1226277028795157</v>
+        <v>-0.1231682108113861</v>
       </c>
       <c r="C81">
-        <v>0.07728925197112257</v>
+        <v>-0.03006878948644835</v>
       </c>
       <c r="D81">
-        <v>-0.01075241448237029</v>
+        <v>0.01996777511739763</v>
       </c>
       <c r="E81">
-        <v>0.05345777376379227</v>
+        <v>0.06141432135400639</v>
       </c>
       <c r="F81">
-        <v>-0.006088647930586147</v>
+        <v>-0.002193913433355291</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1257470733275617</v>
+        <v>-0.162456566601362</v>
       </c>
       <c r="C82">
-        <v>0.06651750614983955</v>
+        <v>-0.02057712218062439</v>
       </c>
       <c r="D82">
-        <v>0.01045202860477462</v>
+        <v>0.01711515407451687</v>
       </c>
       <c r="E82">
-        <v>0.02919014599944531</v>
+        <v>0.03670633530291548</v>
       </c>
       <c r="F82">
-        <v>0.07828851732283543</v>
+        <v>0.0553799961585989</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07548520405361235</v>
+        <v>-0.06610398247265215</v>
       </c>
       <c r="C83">
-        <v>0.09698398331699493</v>
+        <v>-0.00406105147254608</v>
       </c>
       <c r="D83">
-        <v>0.02799172288306358</v>
+        <v>0.04940557307250094</v>
       </c>
       <c r="E83">
-        <v>0.044590318997619</v>
+        <v>0.003186832704557263</v>
       </c>
       <c r="F83">
-        <v>0.07592399773488086</v>
+        <v>-0.03834870178367567</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.0591837482839357</v>
+        <v>-0.06101871215189612</v>
       </c>
       <c r="C84">
-        <v>-0.06540839386148221</v>
+        <v>-0.01142612380726415</v>
       </c>
       <c r="D84">
-        <v>0.04130573338404268</v>
+        <v>0.06027712725950202</v>
       </c>
       <c r="E84">
-        <v>-0.00466685781963687</v>
+        <v>-0.004064110586040191</v>
       </c>
       <c r="F84">
-        <v>-0.1550113652072069</v>
+        <v>0.01427808237699829</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1174393353583502</v>
+        <v>-0.1380954272934471</v>
       </c>
       <c r="C85">
-        <v>0.05872756560814563</v>
+        <v>-0.02545762641560271</v>
       </c>
       <c r="D85">
-        <v>0.004825596976893907</v>
+        <v>0.01627035529777463</v>
       </c>
       <c r="E85">
-        <v>0.001324804847610125</v>
+        <v>0.04064429742558522</v>
       </c>
       <c r="F85">
-        <v>0.06592647881700515</v>
+        <v>0.04186069038846005</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08653706668469489</v>
+        <v>-0.1002554475978854</v>
       </c>
       <c r="C86">
-        <v>0.03009805209321159</v>
+        <v>0.007274330694508746</v>
       </c>
       <c r="D86">
-        <v>-0.02794571987992574</v>
+        <v>0.02060924785266003</v>
       </c>
       <c r="E86">
-        <v>-0.2938399057827333</v>
+        <v>0.1288003075117315</v>
       </c>
       <c r="F86">
-        <v>-0.2556431874998278</v>
+        <v>-0.8264744055273322</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1152815801589365</v>
+        <v>-0.1000159459236956</v>
       </c>
       <c r="C87">
-        <v>0.08339401054595329</v>
+        <v>-0.02558369125538588</v>
       </c>
       <c r="D87">
-        <v>-0.01714279738221373</v>
+        <v>0.07243979675658292</v>
       </c>
       <c r="E87">
-        <v>0.0326127611466631</v>
+        <v>-0.05339486746834095</v>
       </c>
       <c r="F87">
-        <v>-0.03253043771893217</v>
+        <v>0.09175828795075174</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05784932686875017</v>
+        <v>-0.0624344099885046</v>
       </c>
       <c r="C88">
-        <v>0.06042043680107474</v>
+        <v>-0.003290345789403857</v>
       </c>
       <c r="D88">
-        <v>0.03893623974543783</v>
+        <v>0.05335751700233212</v>
       </c>
       <c r="E88">
-        <v>0.04544211814660524</v>
+        <v>0.0258300490260011</v>
       </c>
       <c r="F88">
-        <v>0.03361575772512197</v>
+        <v>0.007689063658749915</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2298529420821335</v>
+        <v>-0.1316858015974931</v>
       </c>
       <c r="C89">
-        <v>-0.3653681816898396</v>
+        <v>-0.005683419576189324</v>
       </c>
       <c r="D89">
-        <v>-0.05238644496318941</v>
+        <v>-0.2675040289666782</v>
       </c>
       <c r="E89">
-        <v>-0.03924070079156651</v>
+        <v>-0.0899934440341776</v>
       </c>
       <c r="F89">
-        <v>-0.04101328908379437</v>
+        <v>0.03103310914808895</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1651675888139532</v>
+        <v>-0.1425391370356424</v>
       </c>
       <c r="C90">
-        <v>-0.2546313662048593</v>
+        <v>-0.02260028774613886</v>
       </c>
       <c r="D90">
-        <v>0.01545773860759068</v>
+        <v>-0.2730789340882148</v>
       </c>
       <c r="E90">
-        <v>0.03566462371828098</v>
+        <v>-0.1050156468801745</v>
       </c>
       <c r="F90">
-        <v>0.03182708876506461</v>
+        <v>0.03525328195534487</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.0766641461121529</v>
+        <v>-0.1171055310303137</v>
       </c>
       <c r="C91">
-        <v>0.07163431878596914</v>
+        <v>-0.01623664748408885</v>
       </c>
       <c r="D91">
-        <v>0.003756403454883658</v>
+        <v>-0.003338563488001343</v>
       </c>
       <c r="E91">
-        <v>-0.004445173614596547</v>
+        <v>0.05954551759968851</v>
       </c>
       <c r="F91">
-        <v>-0.001510968352259931</v>
+        <v>-0.02976199660855795</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.188412867466103</v>
+        <v>-0.145156021647598</v>
       </c>
       <c r="C92">
-        <v>-0.2972496912024657</v>
+        <v>-0.01430494022442105</v>
       </c>
       <c r="D92">
-        <v>-0.02490974790900665</v>
+        <v>-0.3073897091448983</v>
       </c>
       <c r="E92">
-        <v>0.0602292236990794</v>
+        <v>-0.1013000834412629</v>
       </c>
       <c r="F92">
-        <v>-0.06683248135092479</v>
+        <v>0.02819188592780565</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1762051221561031</v>
+        <v>-0.1466220782930465</v>
       </c>
       <c r="C93">
-        <v>-0.2957297657554965</v>
+        <v>-0.01906144118062166</v>
       </c>
       <c r="D93">
-        <v>0.04175055327193274</v>
+        <v>-0.2758089744945674</v>
       </c>
       <c r="E93">
-        <v>0.03045620350335339</v>
+        <v>-0.07080493607519192</v>
       </c>
       <c r="F93">
-        <v>-0.004099331633901407</v>
+        <v>0.02561160175831421</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1212407744077012</v>
+        <v>-0.1337261363022707</v>
       </c>
       <c r="C94">
-        <v>0.08288983834218369</v>
+        <v>-0.02351741219568467</v>
       </c>
       <c r="D94">
-        <v>-0.01238849799465269</v>
+        <v>0.04812044591503493</v>
       </c>
       <c r="E94">
-        <v>-0.01516496628538595</v>
+        <v>0.06204842761737131</v>
       </c>
       <c r="F94">
-        <v>0.03467435251111568</v>
+        <v>0.02736148676467816</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1216235016124089</v>
+        <v>-0.127194052186741</v>
       </c>
       <c r="C95">
-        <v>0.07946287601473137</v>
+        <v>-0.005768153823907598</v>
       </c>
       <c r="D95">
-        <v>-0.01705589979071443</v>
+        <v>0.09111135613853226</v>
       </c>
       <c r="E95">
-        <v>-0.01196412455725186</v>
+        <v>0.04286593013362116</v>
       </c>
       <c r="F95">
-        <v>-0.1381487505635267</v>
+        <v>-0.01072427743130628</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.0007308650215834517</v>
+        <v>-0.09520285797887798</v>
       </c>
       <c r="C96">
-        <v>-0.0005243407087579672</v>
+        <v>0.9893713701944841</v>
       </c>
       <c r="D96">
-        <v>0.001472998045442583</v>
+        <v>-0.01977599336230267</v>
       </c>
       <c r="E96">
-        <v>0.0007026699044544959</v>
+        <v>0.05928416819678475</v>
       </c>
       <c r="F96">
-        <v>0.00179834365658908</v>
+        <v>0.05032682569379048</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1315527119298746</v>
+        <v>-0.1870019901333269</v>
       </c>
       <c r="C97">
-        <v>0.0006951766753899215</v>
+        <v>0.01214235179008793</v>
       </c>
       <c r="D97">
-        <v>-0.03528012019467618</v>
+        <v>-0.01363742615498119</v>
       </c>
       <c r="E97">
-        <v>0.2857272614209397</v>
+        <v>0.01417887818165478</v>
       </c>
       <c r="F97">
-        <v>0.05827007039118628</v>
+        <v>-0.183434879593978</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2370540169605904</v>
+        <v>-0.2064927655295722</v>
       </c>
       <c r="C98">
-        <v>0.09482080424294267</v>
+        <v>-0.006781411222841686</v>
       </c>
       <c r="D98">
-        <v>-0.0936073509325195</v>
+        <v>0.01605661391348141</v>
       </c>
       <c r="E98">
-        <v>-0.2715185152877626</v>
+        <v>-0.09002144508030142</v>
       </c>
       <c r="F98">
-        <v>0.08655086270454765</v>
+        <v>-0.1366346043890856</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.06801586637291394</v>
+        <v>-0.05796866424883872</v>
       </c>
       <c r="C99">
-        <v>0.05799537219839997</v>
+        <v>0.003086746965583978</v>
       </c>
       <c r="D99">
-        <v>-0.009505638598539888</v>
+        <v>0.03438138879227857</v>
       </c>
       <c r="E99">
-        <v>-0.03925855403667015</v>
+        <v>0.02710817137864428</v>
       </c>
       <c r="F99">
-        <v>0.009515012962550673</v>
+        <v>0.003711267720765006</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.0001973200184799851</v>
+        <v>-0.1244533222055404</v>
       </c>
       <c r="C100">
-        <v>-0.004129633944717276</v>
+        <v>0.04820339095073179</v>
       </c>
       <c r="D100">
-        <v>-0.001147816358258526</v>
+        <v>0.3235849816845168</v>
       </c>
       <c r="E100">
-        <v>-0.003994352460717831</v>
+        <v>-0.9053667935221816</v>
       </c>
       <c r="F100">
-        <v>-0.008987061558182893</v>
+        <v>-0.051772742159098</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03295578804939974</v>
+        <v>-0.02747057799525088</v>
       </c>
       <c r="C101">
-        <v>0.03241732181399777</v>
+        <v>-0.009174775077858698</v>
       </c>
       <c r="D101">
-        <v>0.01610652153939674</v>
+        <v>0.02960377980949674</v>
       </c>
       <c r="E101">
-        <v>0.04115789151623667</v>
+        <v>0.00834939371561399</v>
       </c>
       <c r="F101">
-        <v>-0.03595038109657741</v>
+        <v>-0.007934152527904947</v>
       </c>
     </row>
     <row r="102" spans="1:6">
